--- a/src/main/resources/all-route-report.xlsx
+++ b/src/main/resources/all-route-report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abylay/Downloads/neobatu/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB48E4-3E78-634A-9998-19F373780178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C22C14-8B43-F844-9005-55F2C5C29FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -382,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -393,4 +394,22 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C522CD-85D3-A347-9DAC-5F70D0870E8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="35" max="35" width="14.83203125" customWidth="1"/>
+    <col min="36" max="36" width="13.83203125" customWidth="1"/>
+    <col min="37" max="37" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/all-route-report.xlsx
+++ b/src/main/resources/all-route-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abylay/Downloads/neobatu/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C22C14-8B43-F844-9005-55F2C5C29FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EEE647-EDD3-A042-9C1D-97EAB3CF3312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C522CD-85D3-A347-9DAC-5F70D0870E8F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
